--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3299082.914949297</v>
+        <v>3294778.597901055</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8122293.067838448</v>
+        <v>8122293.067838446</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C2" t="n">
-        <v>6.857532046404141</v>
+        <v>219.7489977723471</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651796</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605545</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739395</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.3828147651796</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>140.9683884121482</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807549</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642715</v>
+        <v>18.19058462642701</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.69942090412194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>13.88943950111336</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825665</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>120.0112608806189</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>219.4450108596164</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.1777404442157</v>
+        <v>146.8984032951947</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>135.971525411617</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>148.6486507371593</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>224.7543248662174</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>135.1110683069388</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5109739231589</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.3928413252375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>36.39209596079228</v>
+        <v>54.10799870228521</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>74.53917159609159</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.9413471369465</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>166.5451136812779</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>53.26309598425066</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>225.1982974261591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>56.10180801516471</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.0016338997263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>20.43112068613282</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>135.035311073503</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>44.30292280757659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.79417418838011</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5813113004298</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>120.6512573180102</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0056425020621</v>
+        <v>379.4657288418745</v>
       </c>
       <c r="C2" t="n">
-        <v>300.0788424551892</v>
+        <v>157.4970442233421</v>
       </c>
       <c r="D2" t="n">
-        <v>300.0788424551892</v>
+        <v>157.4970442233421</v>
       </c>
       <c r="E2" t="n">
-        <v>300.0788424551892</v>
+        <v>157.4970442233421</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763402</v>
+        <v>150.5515434741386</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121437</v>
+        <v>137.586573437719</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121437</v>
+        <v>137.586573437719</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467277</v>
+        <v>49.15993901467351</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935553</v>
+        <v>141.9970572935565</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959959</v>
+        <v>294.0714735959975</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779596</v>
+        <v>494.9530007795984</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467031</v>
+        <v>703.6988094670335</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288923</v>
+        <v>887.4762960288958</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108065</v>
+        <v>1009.825128108068</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060718</v>
+        <v>899.19408671934</v>
       </c>
       <c r="T2" t="n">
-        <v>839.0921369771725</v>
+        <v>899.19408671934</v>
       </c>
       <c r="U2" t="n">
-        <v>839.0921369771725</v>
+        <v>645.5089760794308</v>
       </c>
       <c r="V2" t="n">
-        <v>839.0921369771725</v>
+        <v>645.5089760794308</v>
       </c>
       <c r="W2" t="n">
-        <v>839.0921369771725</v>
+        <v>645.5089760794308</v>
       </c>
       <c r="X2" t="n">
-        <v>573.0488897396173</v>
+        <v>645.5089760794308</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.0056425020621</v>
+        <v>645.5089760794308</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360.9263700156569</v>
+        <v>337.9159659897639</v>
       </c>
       <c r="C3" t="n">
-        <v>360.9263700156569</v>
+        <v>163.4629367086369</v>
       </c>
       <c r="D3" t="n">
-        <v>211.9919603544056</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9919603544056</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371015</v>
+        <v>95.65665001371056</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420693</v>
+        <v>242.2693060433174</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286552</v>
+        <v>432.7162285299038</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376704</v>
+        <v>642.6123592779531</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748497</v>
+        <v>812.4065171760993</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062218</v>
+        <v>929.3482319634677</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155236</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="S3" t="n">
-        <v>886.509131571207</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="T3" t="n">
-        <v>886.509131571207</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="U3" t="n">
-        <v>658.373244871818</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="V3" t="n">
-        <v>658.373244871818</v>
+        <v>800.0048229234983</v>
       </c>
       <c r="W3" t="n">
-        <v>658.373244871818</v>
+        <v>545.7674661952967</v>
       </c>
       <c r="X3" t="n">
-        <v>450.5217446662851</v>
+        <v>337.9159659897639</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.9263700156569</v>
+        <v>337.9159659897639</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>492.4480544149511</v>
+        <v>315.8736662615179</v>
       </c>
       <c r="C4" t="n">
-        <v>478.4183175451396</v>
+        <v>315.8736662615179</v>
       </c>
       <c r="D4" t="n">
-        <v>328.3016781328039</v>
+        <v>315.8736662615179</v>
       </c>
       <c r="E4" t="n">
-        <v>328.3016781328039</v>
+        <v>167.9605726791248</v>
       </c>
       <c r="F4" t="n">
-        <v>328.3016781328039</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7317983794769</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7317983794769</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I4" t="n">
-        <v>36.3317696744029</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121437</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481196</v>
+        <v>126.3277805481199</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504846</v>
+        <v>316.5471352504852</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570816</v>
+        <v>527.4958971570824</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670081</v>
+        <v>738.8633854210599</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836274</v>
+        <v>918.0791761376795</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097369</v>
+        <v>1047.908563351422</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898971967</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S4" t="n">
-        <v>717.919308665258</v>
+        <v>846.735177828784</v>
       </c>
       <c r="T4" t="n">
-        <v>492.4480544149511</v>
+        <v>846.735177828784</v>
       </c>
       <c r="U4" t="n">
-        <v>492.4480544149511</v>
+        <v>725.511681989775</v>
       </c>
       <c r="V4" t="n">
-        <v>492.4480544149511</v>
+        <v>725.511681989775</v>
       </c>
       <c r="W4" t="n">
-        <v>492.4480544149511</v>
+        <v>725.511681989775</v>
       </c>
       <c r="X4" t="n">
-        <v>492.4480544149511</v>
+        <v>497.5221310917576</v>
       </c>
       <c r="Y4" t="n">
-        <v>492.4480544149511</v>
+        <v>497.5221310917576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>429.7531369569381</v>
+        <v>888.137410662113</v>
       </c>
       <c r="C6" t="n">
-        <v>429.7531369569381</v>
+        <v>713.684381380986</v>
       </c>
       <c r="D6" t="n">
-        <v>280.8187272956869</v>
+        <v>564.7499717197347</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>405.5125167142792</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
         <v>121.5812722902314</v>
@@ -4646,52 +4646,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>709.4101432413019</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>501.6498444763479</v>
+        <v>1036.519636212815</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>651.1328882755971</v>
+        <v>502.2643237724978</v>
       </c>
       <c r="C7" t="n">
-        <v>482.1967053476902</v>
+        <v>333.328140844591</v>
       </c>
       <c r="D7" t="n">
-        <v>482.1967053476902</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E7" t="n">
-        <v>482.1967053476902</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
         <v>36.32155393434483</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>917.5105448427751</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>917.5105448427751</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>651.1328882755971</v>
+        <v>904.7053677462677</v>
       </c>
       <c r="X7" t="n">
-        <v>651.1328882755971</v>
+        <v>904.7053677462677</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.1328882755971</v>
+        <v>683.9127886027376</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1433.311213134542</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>1075.045514527792</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>689.2572619295474</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>278.2713571399399</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2301.16429435396</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1970.101407010389</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.332751740275</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1617.332751740275</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.332751740275</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.3634259803388</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>163.8841339651333</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387889</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018284</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>342.1642758038111</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.3634259803388</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>659.9487421954783</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0125592675714</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2343.157686942974</v>
+        <v>2325.262835688941</v>
       </c>
       <c r="T13" t="n">
-        <v>2123.556221965915</v>
+        <v>2105.661370711882</v>
       </c>
       <c r="U13" t="n">
-        <v>1834.480995310113</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V13" t="n">
-        <v>1579.796507104226</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W13" t="n">
-        <v>1290.379337067265</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.389786169248</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>841.597207025718</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.043910473548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.05435957553</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926976</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979687</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1527.958529899113</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1238.541359862152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1010.551808964135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>789.7592298206044</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>669.0867315827745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>521.1736380003814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>374.283690502471</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.221377756499</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3175.341129796738</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868831</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456495</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673936</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018134</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812247</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775286</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.019547877269</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3175.341129796738</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6727,22 +6727,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2757.723669558405</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2607.607030146069</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2440.410930860949</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>666.7308394007268</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8177458183337</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>371.9277983204233</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3887.505495594679</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3598.088325557718</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3093.254426444652</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C43" t="n">
-        <v>2924.318243516745</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D43" t="n">
-        <v>2774.20160410441</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E43" t="n">
-        <v>2626.288510522017</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F43" t="n">
-        <v>2479.398563024106</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.255922673039</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>3642.838752636078</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>3414.849201738061</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.056622594531</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877319</v>
+        <v>60.59164343877293</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079664</v>
+        <v>2.109135423079451</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96.89877181692205</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96.89877181692329</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>170.9799771939054</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872719769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>45.76488231024575</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.6341900408523</v>
+        <v>126.9182872993594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6.726664722473927</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.28686650065944</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.4465594047865</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>26.93934589766886</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.70888054695401</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.58301945236849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>119.8635921600911</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>30.48882721876581</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>207.8347205162514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.03780599355719</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.058398071027</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
@@ -26331,31 +26331,31 @@
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909284</v>
+        <v>679702.4124909297</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680950655</v>
+        <v>366.4703680937848</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642059</v>
+        <v>68912.53318642093</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774284445</v>
+        <v>85.20559774258</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674034</v>
+        <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26444,7 +26444,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26456,7 +26456,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557681</v>
+        <v>63021.4616455769</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256902.8290260534</v>
+        <v>-256902.8290260547</v>
       </c>
       <c r="C6" t="n">
-        <v>422506.5543981585</v>
+        <v>422506.5543981597</v>
       </c>
       <c r="D6" t="n">
-        <v>112124.4993643671</v>
+        <v>112124.4993643667</v>
       </c>
       <c r="E6" t="n">
-        <v>105437.0480907338</v>
+        <v>105089.668836377</v>
       </c>
       <c r="F6" t="n">
-        <v>612922.4897152801</v>
+        <v>612575.1104609231</v>
       </c>
       <c r="G6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609233</v>
       </c>
       <c r="H6" t="n">
-        <v>612922.4897152802</v>
+        <v>612575.1104609235</v>
       </c>
       <c r="I6" t="n">
-        <v>612922.48971528</v>
+        <v>612575.1104609233</v>
       </c>
       <c r="J6" t="n">
-        <v>544009.9565288598</v>
+        <v>543662.5772745021</v>
       </c>
       <c r="K6" t="n">
-        <v>612837.2841175376</v>
+        <v>612489.9048631804</v>
       </c>
       <c r="L6" t="n">
-        <v>517539.8435777102</v>
+        <v>517192.4643233534</v>
       </c>
       <c r="M6" t="n">
-        <v>480315.1959863537</v>
+        <v>479967.8167319964</v>
       </c>
       <c r="N6" t="n">
-        <v>612922.4897152805</v>
+        <v>612575.1104609231</v>
       </c>
       <c r="O6" t="n">
-        <v>612922.4897152804</v>
+        <v>612575.1104609232</v>
       </c>
       <c r="P6" t="n">
-        <v>612922.4897152804</v>
+        <v>612575.1104609231</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.284990473427797</v>
+        <v>0.2849904734267739</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363265376</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651794</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363263671</v>
+        <v>0.3310652363252302</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651796</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265376</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268982999</v>
       </c>
       <c r="C2" t="n">
-        <v>358.4153597246034</v>
+        <v>145.5238939986605</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765318</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.3482859132894</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.855123890874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.476677152490566</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807541</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.9832748731824</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>153.3573815975145</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>166.2473976539084</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.1648765455755</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>135.2380307610665</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95.35544320565164</v>
+        <v>19.63478035467264</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,10 +27706,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>150.2871050910605</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>137.8743475994317</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>186.7933779067366</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>115.9341818215232</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.91007409977237</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>79.19181202685729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.467417179079602</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964663</v>
+        <v>95.12510079646646</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029072</v>
+        <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933466</v>
+        <v>313.8647179933472</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.3769364876046</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.2568667460615</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061207</v>
+        <v>440.2674158061214</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.7320362316486</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231203</v>
+        <v>354.8176746231209</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973321</v>
+        <v>266.4532968973326</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753589</v>
+        <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827639</v>
+        <v>56.22626896827649</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1973933743263681</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333959</v>
+        <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.728491243587</v>
+        <v>124.7284912435872</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.1808579970823</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289715</v>
+        <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.504662696348</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682311</v>
+        <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466118</v>
+        <v>314.1054948466123</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.0973516439952</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621598</v>
+        <v>81.96724952621612</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564879</v>
+        <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311983</v>
+        <v>5.321270296311992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962983</v>
+        <v>0.08685424857962996</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057996</v>
+        <v>9.840443980058012</v>
       </c>
       <c r="I4" t="n">
-        <v>33.284446509235</v>
+        <v>33.28444650923506</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841613</v>
+        <v>78.25064706841626</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.589850782353</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187285</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.440923314869</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770362</v>
+        <v>92.67927351770378</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.76568090528311</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.28847761735295</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477764</v>
+        <v>4.729047720477772</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354601</v>
+        <v>0.06037082196354611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>528.7932908500043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>724.9681211658385</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622092</v>
+        <v>28.37304427622129</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836608</v>
+        <v>93.77486694836665</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176167</v>
+        <v>153.6105215176174</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518788</v>
+        <v>202.9106335187887</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095298</v>
+        <v>210.8543522095305</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099612</v>
+        <v>185.6338248099619</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288262</v>
+        <v>44.14760702288308</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272301</v>
+        <v>75.33941902272335</v>
       </c>
       <c r="L3" t="n">
-        <v>244.9923637660194</v>
+        <v>148.0935919490978</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743291</v>
+        <v>192.3706287743297</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848978</v>
+        <v>212.0162936848984</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021674</v>
+        <v>171.5092504021679</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296645</v>
+        <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141485</v>
+        <v>125.4374011083384</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.1407623256215</v>
       </c>
       <c r="M4" t="n">
-        <v>213.079557481411</v>
+        <v>213.0795574814113</v>
       </c>
       <c r="N4" t="n">
-        <v>212.6647737474005</v>
+        <v>213.5025133979571</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289084</v>
+        <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009236</v>
+        <v>5.679490615455626</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>381.1895643063687</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>320.8355783388566</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>386.659256927986</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>582.8340872438201</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3294778.597901055</v>
+        <v>3296539.128203841</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651807</v>
+        <v>263.3828147651821</v>
       </c>
       <c r="C2" t="n">
-        <v>219.7489977723471</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>20.28958724569659</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739395</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>140.9683884121482</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.6205975684317</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642701</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>120.0112608806189</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>106.154727948149</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8984032951947</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -992,7 +992,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>79.84453991653724</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>148.6486507371593</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>200.3496370507075</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>174.6378278203668</v>
       </c>
       <c r="G8" t="n">
-        <v>224.7543248662174</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>51.9209691792515</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231589</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>54.10799870228521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>227.5492438149783</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174091</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53917159609159</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>193.5578088304768</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701314</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977487</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.7518808581223</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788182182</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>41.55695577161152</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>151.0612007923062</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>108.5813113004298</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.4657288418745</v>
+        <v>165.0266067583331</v>
       </c>
       <c r="C2" t="n">
-        <v>157.4970442233421</v>
+        <v>165.0266067583331</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4970442233421</v>
+        <v>165.0266067583331</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4970442233421</v>
+        <v>165.0266067583331</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741386</v>
+        <v>158.0811060091296</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>137.5865734377189</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467351</v>
+        <v>49.15993901467391</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935565</v>
+        <v>141.9970572935575</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959975</v>
+        <v>294.0714735959994</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795984</v>
+        <v>494.953000779601</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670335</v>
+        <v>703.6988094670373</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288958</v>
+        <v>887.4762960289002</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108068</v>
+        <v>1009.825128108074</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S2" t="n">
-        <v>899.19408671934</v>
+        <v>899.1940867193458</v>
       </c>
       <c r="T2" t="n">
-        <v>899.19408671934</v>
+        <v>684.7549646358</v>
       </c>
       <c r="U2" t="n">
-        <v>645.5089760794308</v>
+        <v>431.0698539958908</v>
       </c>
       <c r="V2" t="n">
-        <v>645.5089760794308</v>
+        <v>431.0698539958908</v>
       </c>
       <c r="W2" t="n">
-        <v>645.5089760794308</v>
+        <v>431.0698539958908</v>
       </c>
       <c r="X2" t="n">
-        <v>645.5089760794308</v>
+        <v>431.0698539958908</v>
       </c>
       <c r="Y2" t="n">
-        <v>645.5089760794308</v>
+        <v>431.0698539958908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.9159659897639</v>
+        <v>423.227065106926</v>
       </c>
       <c r="C3" t="n">
-        <v>163.4629367086369</v>
+        <v>423.227065106926</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07062518121446</v>
+        <v>274.2926554456747</v>
       </c>
       <c r="E3" t="n">
-        <v>21.07062518121446</v>
+        <v>274.2926554456747</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07062518121446</v>
+        <v>127.7580974725597</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121446</v>
+        <v>117.0004092799707</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371056</v>
+        <v>191.5864341124672</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433174</v>
+        <v>338.1990901420746</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299038</v>
+        <v>528.6460126286617</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779531</v>
+        <v>738.5421433767117</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760993</v>
+        <v>908.3363012748584</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634677</v>
+        <v>1025.278016062227</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155241</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155241</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155241</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155241</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="V3" t="n">
-        <v>800.0048229234983</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="W3" t="n">
-        <v>545.7674661952967</v>
+        <v>799.2939023325268</v>
       </c>
       <c r="X3" t="n">
-        <v>337.9159659897639</v>
+        <v>591.442402126994</v>
       </c>
       <c r="Y3" t="n">
-        <v>337.9159659897639</v>
+        <v>591.442402126994</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.8736662615179</v>
+        <v>315.8736662615181</v>
       </c>
       <c r="C4" t="n">
-        <v>315.8736662615179</v>
+        <v>315.8736662615181</v>
       </c>
       <c r="D4" t="n">
-        <v>315.8736662615179</v>
+        <v>315.8736662615181</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9605726791248</v>
+        <v>167.9605726791249</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121446</v>
+        <v>21.07062518121457</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481199</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504852</v>
+        <v>316.5471352504859</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570824</v>
+        <v>527.4958971570834</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210599</v>
+        <v>738.8633854210613</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376795</v>
+        <v>918.0791761376811</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351422</v>
+        <v>1047.908563351423</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="S4" t="n">
-        <v>846.735177828784</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="T4" t="n">
-        <v>846.735177828784</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="U4" t="n">
-        <v>725.511681989775</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="V4" t="n">
-        <v>725.511681989775</v>
+        <v>1053.531259060728</v>
       </c>
       <c r="W4" t="n">
-        <v>725.511681989775</v>
+        <v>946.3042611333052</v>
       </c>
       <c r="X4" t="n">
-        <v>497.5221310917576</v>
+        <v>718.3147102352879</v>
       </c>
       <c r="Y4" t="n">
-        <v>497.5221310917576</v>
+        <v>497.5221310917577</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="D5" t="n">
         <v>566.8162363079209</v>
@@ -4567,22 +4567,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4612,7 +4612,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>833.1938928750989</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>888.137410662113</v>
+        <v>787.653248772002</v>
       </c>
       <c r="C6" t="n">
-        <v>713.684381380986</v>
+        <v>613.200219490875</v>
       </c>
       <c r="D6" t="n">
-        <v>564.7499717197347</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E6" t="n">
-        <v>405.5125167142792</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4691,7 +4691,7 @@
         <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>1036.519636212815</v>
+        <v>955.86858579207</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>502.2643237724978</v>
+        <v>670.8336844174944</v>
       </c>
       <c r="C7" t="n">
-        <v>333.328140844591</v>
+        <v>501.8975014895875</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>904.7053677462677</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>904.7053677462677</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>683.9127886027376</v>
+        <v>852.4821492477341</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074954</v>
+        <v>1078.689549231436</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.311213134542</v>
+        <v>709.7270322910247</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.045514527792</v>
+        <v>709.7270322910247</v>
       </c>
       <c r="E8" t="n">
-        <v>689.2572619295474</v>
+        <v>709.7270322910247</v>
       </c>
       <c r="F8" t="n">
-        <v>278.2713571399399</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1855.42872127137</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139076</v>
+        <v>1465.289389295558</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475264</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651333</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5105,34 +5105,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1016.580456911439</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>847.6442739835325</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>697.5276345711968</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888038</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.262835688941</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.661370711882</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.58614405608</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.901655850193</v>
+        <v>1708.438670922169</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1419.021500885209</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,43 +5342,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>727.978678255727</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491255</v>
+        <v>559.0424953278202</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367897</v>
+        <v>408.9258559154847</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543966</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="F16" t="n">
-        <v>336.3048548543966</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G16" t="n">
-        <v>169.1087555692765</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="H16" t="n">
-        <v>169.1087555692765</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>948.7712573992569</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>727.978678255727</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5582,34 +5582,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121663</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998307</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998307</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998307</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998307</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703127</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560544</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>352.5519571452622</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N21" t="n">
         <v>1577.52840832642</v>
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5949,13 +5949,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703127</v>
       </c>
     </row>
     <row r="23">
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188003</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.72455551139</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166295</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189236</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533434</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327547</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925698</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490398</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6372,25 +6372,25 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,10 +6548,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
         <v>2283.159972732779</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
         <v>484.8112968429803</v>
@@ -6855,16 +6855,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.475473980187</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7414,16 +7414,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,16 +7432,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>984.5467179762944</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>815.6105350483875</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>665.4938956360518</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>517.5808020536587</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>370.6908545557483</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>203.4947552706282</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.195182806534</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,7 +7724,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877293</v>
+        <v>60.59164343877265</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079451</v>
+        <v>99.00790724000464</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.89877181692329</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719769</v>
+        <v>64.50521872720142</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S13" t="n">
-        <v>126.9182872993594</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>24.58839950884956</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>6.726664722473927</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>32.15184655856018</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664489</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405054</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392193938</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.70888054695401</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>31.71340154579411</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>714870.6177556649</v>
+        <v>714870.617755665</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697663.5450717392</v>
+        <v>697663.5450717394</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>697663.5450717394</v>
+        <v>697663.5450717392</v>
       </c>
     </row>
     <row r="12">
@@ -26316,13 +26316,13 @@
         <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210053</v>
@@ -26331,31 +26331,31 @@
         <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909297</v>
+        <v>679702.4124909313</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680937848</v>
+        <v>366.470368092394</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059433</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245452</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642093</v>
+        <v>68912.53318642145</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774258</v>
+        <v>85.20559774225926</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.6461375698</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674026</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26426,34 +26426,34 @@
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181834</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181837</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181834</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181826</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818183</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.4616455769</v>
+        <v>63021.46164557702</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256902.8290260547</v>
+        <v>-256902.829026056</v>
       </c>
       <c r="C6" t="n">
-        <v>422506.5543981597</v>
+        <v>422506.5543981617</v>
       </c>
       <c r="D6" t="n">
-        <v>112124.4993643667</v>
+        <v>112124.4993643669</v>
       </c>
       <c r="E6" t="n">
-        <v>105089.668836377</v>
+        <v>105402.3101652993</v>
       </c>
       <c r="F6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="G6" t="n">
-        <v>612575.1104609233</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="H6" t="n">
-        <v>612575.1104609235</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="I6" t="n">
-        <v>612575.1104609233</v>
+        <v>612887.7517898441</v>
       </c>
       <c r="J6" t="n">
-        <v>543662.5772745021</v>
+        <v>543975.2186034231</v>
       </c>
       <c r="K6" t="n">
-        <v>612489.9048631804</v>
+        <v>612802.5461921024</v>
       </c>
       <c r="L6" t="n">
-        <v>517192.4643233534</v>
+        <v>517505.1056522749</v>
       </c>
       <c r="M6" t="n">
-        <v>479967.8167319964</v>
+        <v>480280.4580609176</v>
       </c>
       <c r="N6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898444</v>
       </c>
       <c r="O6" t="n">
-        <v>612575.1104609232</v>
+        <v>612887.7517898446</v>
       </c>
       <c r="P6" t="n">
-        <v>612575.1104609231</v>
+        <v>612887.7517898445</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.3828147651821</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099647</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960515</v>
+        <v>613.7700232960526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734267739</v>
+        <v>0.2849904734257507</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480607</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.910608224134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.3828147651821</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363254576</v>
+        <v>0.3310652363240365</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.3828147651826</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252302</v>
+        <v>0.3310652363240933</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985329</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651807</v>
+        <v>263.3828147651821</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363254576</v>
+        <v>0.3310652363240365</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996087</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268982999</v>
+        <v>119.3510268982985</v>
       </c>
       <c r="C2" t="n">
-        <v>145.5238939986605</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>392.5457330903588</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>6.476677152490566</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>30.40273501636858</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807541</v>
+        <v>43.94290942807532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642687</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27517,7 +27517,7 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825652</v>
+        <v>15.10853304825638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>166.2473976539084</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>180.368270388442</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.2380307610665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>166.7929277964372</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.63478035467264</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>125.8381558607671</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>137.8743475994317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>18.23501630138728</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>232.2382179213447</v>
       </c>
       <c r="G8" t="n">
-        <v>186.7933779067366</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.215436193166734e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28389,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.922195901395753e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28623,10 +28623,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.467448550509289e-12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29523,10 +29523,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524903</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646646</v>
+        <v>95.12510079646663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933472</v>
+        <v>313.8647179933478</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876046</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460615</v>
+        <v>433.2568667460623</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061214</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316486</v>
+        <v>415.7320362316494</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231209</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827649</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263681</v>
+        <v>0.1973933743263685</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435872</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970823</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.504662696348</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466123</v>
+        <v>314.1054948466129</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439952</v>
+        <v>252.0973516439957</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621612</v>
+        <v>81.96724952621626</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564888</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311992</v>
+        <v>5.321270296312002</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962996</v>
+        <v>0.08685424857963013</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058012</v>
+        <v>9.84044398005803</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923506</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841626</v>
+        <v>78.2506470684164</v>
       </c>
       <c r="K4" t="n">
-        <v>128.589850782353</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187285</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.440923314869</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770378</v>
+        <v>92.67927351770395</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528311</v>
+        <v>49.7656809052832</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735295</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477772</v>
+        <v>4.729047720477781</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354611</v>
+        <v>0.06037082196354622</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328838</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732835</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>518.4394551593587</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121648</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209205</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,19 +33262,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781363</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33286,13 +33286,13 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,22 +34210,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622129</v>
+        <v>28.37304427622166</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836665</v>
+        <v>93.77486694836722</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176174</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187887</v>
+        <v>202.9106335187896</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095305</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099619</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.584678867852</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288308</v>
+        <v>44.14760702288359</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692542</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272335</v>
+        <v>75.33941902272375</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490978</v>
+        <v>148.0935919490984</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743297</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.016293684899</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.5092504021684</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083384</v>
+        <v>28.53862929141545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.0795574814116</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979571</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615455626</v>
+        <v>5.67949061545953</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977091</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>191.3582339884394</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288391</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q15" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>376.3054212373404</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36050,13 +36050,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378059</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410463</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36287,13 +36287,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36536,7 +36536,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.475165594803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
